--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="zobie" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="zombi" sheetId="1" r:id="rId1"/>
+    <sheet name="esqueleto" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,236 +25,454 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="73">
-  <si>
-    <t xml:space="preserve">00011111n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11111000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00111111n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00001111n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11110000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11000000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111111n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11100000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11111110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00000111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111010n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n01011110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00111101n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01000000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00111100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00111100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00011001n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00011110n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10011000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n01111000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00001110n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00001100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n01110000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00110000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000111n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111111n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111110n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n01111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000010n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n01000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000001n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00111111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01111110n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01001000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n01111110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00010010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10100101n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00100001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10100101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00100100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00100100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00100000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00111011n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11011100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110011n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11001110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110001n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00111001n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10001110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10011100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01110000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00001110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00110011n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n11001100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11111001n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11110000n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n10011111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n00001111</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="147">
+  <si>
+    <t>00011111n</t>
+  </si>
+  <si>
+    <t>00000000n</t>
+  </si>
+  <si>
+    <t>n11111000</t>
+  </si>
+  <si>
+    <t>n00000000</t>
+  </si>
+  <si>
+    <t>00111111n</t>
+  </si>
+  <si>
+    <t>10000000n</t>
+  </si>
+  <si>
+    <t>00001111n</t>
+  </si>
+  <si>
+    <t>n11111100</t>
+  </si>
+  <si>
+    <t>n00000001</t>
+  </si>
+  <si>
+    <t>n11110000</t>
+  </si>
+  <si>
+    <t>11000000n</t>
+  </si>
+  <si>
+    <t>n00000011</t>
+  </si>
+  <si>
+    <t>01111111n</t>
+  </si>
+  <si>
+    <t>11100000n</t>
+  </si>
+  <si>
+    <t>n11111110</t>
+  </si>
+  <si>
+    <t>n00000111</t>
+  </si>
+  <si>
+    <t>01111010n</t>
+  </si>
+  <si>
+    <t>n01011110</t>
+  </si>
+  <si>
+    <t>00111101n</t>
+  </si>
+  <si>
+    <t>01000000n</t>
+  </si>
+  <si>
+    <t>n10111100</t>
+  </si>
+  <si>
+    <t>n00000010</t>
+  </si>
+  <si>
+    <t>00111100n</t>
+  </si>
+  <si>
+    <t>n00111100</t>
+  </si>
+  <si>
+    <t>00011001n</t>
+  </si>
+  <si>
+    <t>00011110n</t>
+  </si>
+  <si>
+    <t>n10011000</t>
+  </si>
+  <si>
+    <t>n01111000</t>
+  </si>
+  <si>
+    <t>00001110n</t>
+  </si>
+  <si>
+    <t>00001100n</t>
+  </si>
+  <si>
+    <t>n01110000</t>
+  </si>
+  <si>
+    <t>n00110000</t>
+  </si>
+  <si>
+    <t>00000111n</t>
+  </si>
+  <si>
+    <t>n11100000</t>
+  </si>
+  <si>
+    <t>11111111n</t>
+  </si>
+  <si>
+    <t>n11111111</t>
+  </si>
+  <si>
+    <t>11111110n</t>
+  </si>
+  <si>
+    <t>n01111111</t>
+  </si>
+  <si>
+    <t>00000010n</t>
+  </si>
+  <si>
+    <t>n01000000</t>
+  </si>
+  <si>
+    <t>10000001n</t>
+  </si>
+  <si>
+    <t>n10000001</t>
+  </si>
+  <si>
+    <t>11111100n</t>
+  </si>
+  <si>
+    <t>n00111111</t>
+  </si>
+  <si>
+    <t>01111110n</t>
+  </si>
+  <si>
+    <t>01001000n</t>
+  </si>
+  <si>
+    <t>n01111110</t>
+  </si>
+  <si>
+    <t>n00010010</t>
+  </si>
+  <si>
+    <t>10000100n</t>
+  </si>
+  <si>
+    <t>10100101n</t>
+  </si>
+  <si>
+    <t>n00100001</t>
+  </si>
+  <si>
+    <t>n10100101</t>
+  </si>
+  <si>
+    <t>00100100n</t>
+  </si>
+  <si>
+    <t>n00100100</t>
+  </si>
+  <si>
+    <t>00000100n</t>
+  </si>
+  <si>
+    <t>n00100000</t>
+  </si>
+  <si>
+    <t>00111011n</t>
+  </si>
+  <si>
+    <t>n11011100</t>
+  </si>
+  <si>
+    <t>01110011n</t>
+  </si>
+  <si>
+    <t>n11001110</t>
+  </si>
+  <si>
+    <t>01110001n</t>
+  </si>
+  <si>
+    <t>00111001n</t>
+  </si>
+  <si>
+    <t>n10001110</t>
+  </si>
+  <si>
+    <t>n10011100</t>
+  </si>
+  <si>
+    <t>01110000n</t>
+  </si>
+  <si>
+    <t>n00001110</t>
+  </si>
+  <si>
+    <t>00110011n</t>
+  </si>
+  <si>
+    <t>n11001100</t>
+  </si>
+  <si>
+    <t>11111001n</t>
+  </si>
+  <si>
+    <t>11110000n</t>
+  </si>
+  <si>
+    <t>n10011111</t>
+  </si>
+  <si>
+    <t>n00001111</t>
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>n10110000</t>
+  </si>
+  <si>
+    <t>n10100000</t>
+  </si>
+  <si>
+    <t>n11011000</t>
+  </si>
+  <si>
+    <t>n11000000</t>
+  </si>
+  <si>
+    <t>n00011100</t>
+  </si>
+  <si>
+    <t>n00001100</t>
+  </si>
+  <si>
+    <t>n00111000</t>
+  </si>
+  <si>
+    <t>n00111110</t>
+  </si>
+  <si>
+    <t>n00011011</t>
+  </si>
+  <si>
+    <t>n01111100</t>
+  </si>
+  <si>
+    <t>n00110111</t>
+  </si>
+  <si>
+    <t>n11101100</t>
+  </si>
+  <si>
+    <t>n11101110</t>
+  </si>
+  <si>
+    <t>n01110100</t>
+  </si>
+  <si>
+    <t>n01101110</t>
+  </si>
+  <si>
+    <t>n01010111</t>
+  </si>
+  <si>
+    <t>n00101111</t>
+  </si>
+  <si>
+    <t>n11001010</t>
+  </si>
+  <si>
+    <t>n01010100</t>
+  </si>
+  <si>
+    <t>n01001010</t>
+  </si>
+  <si>
+    <t>n00101100</t>
+  </si>
+  <si>
+    <t>n11000111</t>
+  </si>
+  <si>
+    <t>n00110100</t>
+  </si>
+  <si>
+    <t>n01000111</t>
+  </si>
+  <si>
+    <t>n01000011</t>
+  </si>
+  <si>
+    <t>n11000011</t>
+  </si>
+  <si>
+    <t>n11000001</t>
+  </si>
+  <si>
+    <t>n01100100</t>
+  </si>
+  <si>
+    <t>n10000000</t>
+  </si>
+  <si>
+    <t>n01110111</t>
+  </si>
+  <si>
+    <t>n00001000</t>
+  </si>
+  <si>
+    <t>n00101000</t>
+  </si>
+  <si>
+    <t>n00011000</t>
+  </si>
+  <si>
+    <t>n00010100</t>
+  </si>
+  <si>
+    <t>n01010000</t>
+  </si>
+  <si>
+    <t>n01011000</t>
+  </si>
+  <si>
+    <t>n00010110</t>
+  </si>
+  <si>
+    <t>00111000n</t>
+  </si>
+  <si>
+    <t>01111100n</t>
+  </si>
+  <si>
+    <t>11101100n</t>
+  </si>
+  <si>
+    <t>00101110n</t>
+  </si>
+  <si>
+    <t>11101010n</t>
+  </si>
+  <si>
+    <t>00101010n</t>
+  </si>
+  <si>
+    <t>00101100n</t>
+  </si>
+  <si>
+    <t>00100110n</t>
+  </si>
+  <si>
+    <t>00010000n</t>
+  </si>
+  <si>
+    <t>00011000n</t>
+  </si>
+  <si>
+    <t>00001010n</t>
+  </si>
+  <si>
+    <t>00011010n</t>
+  </si>
+  <si>
+    <t>00001101n</t>
+  </si>
+  <si>
+    <t>00000101n</t>
+  </si>
+  <si>
+    <t>00011011n</t>
+  </si>
+  <si>
+    <t>00000011n</t>
+  </si>
+  <si>
+    <t>00110111n</t>
+  </si>
+  <si>
+    <t>01110110n</t>
+  </si>
+  <si>
+    <t>01010010n</t>
+  </si>
+  <si>
+    <t>01010011n</t>
+  </si>
+  <si>
+    <t>11100010n</t>
+  </si>
+  <si>
+    <t>11000011n</t>
+  </si>
+  <si>
+    <t>00011100n</t>
+  </si>
+  <si>
+    <t>00010100n</t>
+  </si>
+  <si>
+    <t>00110100n</t>
+  </si>
+  <si>
+    <t>00110000n</t>
+  </si>
+  <si>
+    <t>11011000n</t>
+  </si>
+  <si>
+    <t>11110100n</t>
+  </si>
+  <si>
+    <t>11101110n</t>
+  </si>
+  <si>
+    <t>00101000n</t>
+  </si>
+  <si>
+    <t>01101000n</t>
+  </si>
+  <si>
+    <t>00111110n</t>
+  </si>
+  <si>
+    <t>01110111n</t>
+  </si>
+  <si>
+    <t>11100011n</t>
+  </si>
+  <si>
+    <t>11000010n</t>
+  </si>
+  <si>
+    <t>10000011n</t>
+  </si>
+  <si>
+    <t>00000001n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,23 +480,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +491,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFACB20C"/>
-        <bgColor rgb="FF808000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -296,49 +510,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -352,7 +536,7 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF706E0C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -397,1895 +581,4047 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.85"/>
+    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A1,9,1,""),2)</f>
+        <f>BIN2HEX(REPLACE(A1,9,1,""),2)</f>
         <v>1F</v>
       </c>
-      <c r="F1" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B1,9,1,""),2)</f>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:F32" si="0">BIN2HEX(REPLACE(B1,9,1,""),2)</f>
         <v>00</v>
       </c>
       <c r="G1" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C1,9,1,""),2)</f>
+        <f t="shared" ref="G1:G32" si="1">BIN2HEX(REPLACE(C1,9,1,""),2)</f>
         <v>00</v>
       </c>
-      <c r="H1" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D1,9,1,""),2)</f>
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:H32" si="2">BIN2HEX(REPLACE(D1,9,1,""),2)</f>
         <v>00</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I1,1,1,""),2)</f>
+        <f t="shared" ref="M1:M32" si="3">BIN2HEX(REPLACE(I1,1,1,""),2)</f>
         <v>F8</v>
       </c>
-      <c r="N1" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J1,1,1,""),2)</f>
+      <c r="N1" t="str">
+        <f t="shared" ref="N1:N32" si="4">BIN2HEX(REPLACE(J1,1,1,""),2)</f>
         <v>00</v>
       </c>
       <c r="O1" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K1,1,1,""),2)</f>
+        <f t="shared" ref="O1:O32" si="5">BIN2HEX(REPLACE(K1,1,1,""),2)</f>
         <v>00</v>
       </c>
-      <c r="P1" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L1,1,1,""),2)</f>
+      <c r="P1" t="str">
+        <f t="shared" ref="P1:P32" si="6">BIN2HEX(REPLACE(L1,1,1,""),2)</f>
         <v>00</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A2,9,1,""),2)</f>
+        <f t="shared" ref="E2:E32" si="7">BIN2HEX(REPLACE(A2,9,1,""),2)</f>
         <v>3F</v>
       </c>
-      <c r="F2" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B2,9,1,""),2)</f>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G2" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C2,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>0F</v>
       </c>
-      <c r="H2" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D2,9,1,""),2)</f>
+      <c r="H2" t="str">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I2,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
-      <c r="N2" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J2,1,1,""),2)</f>
+      <c r="N2" t="str">
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K2,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>F0</v>
       </c>
-      <c r="P2" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L2,1,1,""),2)</f>
+      <c r="P2" t="str">
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A3,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
-      <c r="F3" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B3,9,1,""),2)</f>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
         <v>C0</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C3,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
-      <c r="H3" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D3,9,1,""),2)</f>
+      <c r="H3" t="str">
+        <f t="shared" si="2"/>
         <v>C0</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I3,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
-      <c r="N3" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J3,1,1,""),2)</f>
+      <c r="N3" t="str">
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K3,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>F8</v>
       </c>
-      <c r="P3" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L3,1,1,""),2)</f>
+      <c r="P3" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A4,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F4" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B4,9,1,""),2)</f>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C4,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
-      <c r="H4" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D4,9,1,""),2)</f>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
         <v>E0</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I4,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N4" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J4,1,1,""),2)</f>
+      <c r="N4" t="str">
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K4,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>F8</v>
       </c>
-      <c r="P4" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L4,1,1,""),2)</f>
+      <c r="P4" t="str">
+        <f t="shared" si="6"/>
         <v>07</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A5,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F5" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B5,9,1,""),2)</f>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G5" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C5,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H5" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D5,9,1,""),2)</f>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
         <v>C0</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I5,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N5" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J5,1,1,""),2)</f>
+      <c r="N5" t="str">
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K5,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P5" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L5,1,1,""),2)</f>
+      <c r="P5" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A6,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7A</v>
       </c>
-      <c r="F6" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B6,9,1,""),2)</f>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G6" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C6,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H6" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D6,9,1,""),2)</f>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
         <v>C0</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I6,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>5E</v>
       </c>
-      <c r="N6" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J6,1,1,""),2)</f>
+      <c r="N6" t="str">
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K6,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P6" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L6,1,1,""),2)</f>
+      <c r="P6" t="str">
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A7,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F7" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B7,9,1,""),2)</f>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C7,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3D</v>
       </c>
-      <c r="H7" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D7,9,1,""),2)</f>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I7,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N7" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J7,1,1,""),2)</f>
+      <c r="N7" t="str">
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K7,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>BC</v>
       </c>
-      <c r="P7" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L7,1,1,""),2)</f>
+      <c r="P7" t="str">
+        <f t="shared" si="6"/>
         <v>02</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A8,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F8" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B8,9,1,""),2)</f>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C8,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H8" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D8,9,1,""),2)</f>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I8,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N8" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J8,1,1,""),2)</f>
+      <c r="N8" t="str">
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K8,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P8" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L8,1,1,""),2)</f>
+      <c r="P8" t="str">
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A9,9,1,""),2)</f>
+      <c r="E9" t="str">
+        <f t="shared" si="7"/>
         <v>3C</v>
       </c>
       <c r="F9" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B9,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G9" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C9,9,1,""),2)</f>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D9,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I9,1,1,""),2)</f>
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
         <v>3C</v>
       </c>
       <c r="N9" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J9,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
-      <c r="O9" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K9,1,1,""),2)</f>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
       <c r="P9" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L9,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A10,9,1,""),2)</f>
+      <c r="E10" t="str">
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="F10" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B10,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="G10" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C10,9,1,""),2)</f>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
         <v>1E</v>
       </c>
       <c r="H10" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D10,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I10,1,1,""),2)</f>
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="N10" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J10,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
-      <c r="O10" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K10,1,1,""),2)</f>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="P10" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L10,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>02</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A11,9,1,""),2)</f>
+      <c r="E11" t="str">
+        <f t="shared" si="7"/>
         <v>0E</v>
       </c>
       <c r="F11" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B11,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="G11" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C11,9,1,""),2)</f>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
         <v>0C</v>
       </c>
       <c r="H11" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D11,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I11,1,1,""),2)</f>
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="N11" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J11,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
-      <c r="O11" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K11,1,1,""),2)</f>
+      <c r="O11" t="str">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="P11" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L11,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A12,9,1,""),2)</f>
+      <c r="E12" t="str">
+        <f t="shared" si="7"/>
         <v>0E</v>
       </c>
       <c r="F12" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B12,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
-      <c r="G12" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C12,9,1,""),2)</f>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="H12" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D12,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="J12" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" t="s">
         <v>33</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I12,1,1,""),2)</f>
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="N12" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J12,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>00</v>
       </c>
-      <c r="O12" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K12,1,1,""),2)</f>
+      <c r="O12" t="str">
+        <f t="shared" si="5"/>
         <v>E0</v>
       </c>
       <c r="P12" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L12,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A13,9,1,""),2)</f>
+      <c r="E13" t="str">
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
       <c r="F13" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B13,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="G13" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C13,9,1,""),2)</f>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
         <v>07</v>
       </c>
       <c r="H13" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D13,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>00</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="J13" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I13,1,1,""),2)</f>
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
       <c r="N13" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J13,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>FF</v>
       </c>
-      <c r="O13" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K13,1,1,""),2)</f>
+      <c r="O13" t="str">
+        <f t="shared" si="5"/>
         <v>E0</v>
       </c>
       <c r="P13" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L13,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>00</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A14,9,1,""),2)</f>
+      <c r="E14" t="str">
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
       <c r="F14" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B14,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>FE</v>
       </c>
-      <c r="G14" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C14,9,1,""),2)</f>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
       <c r="H14" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D14,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>FF</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="J14" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I14,1,1,""),2)</f>
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
       <c r="N14" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J14,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>7F</v>
       </c>
-      <c r="O14" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K14,1,1,""),2)</f>
+      <c r="O14" t="str">
+        <f t="shared" si="5"/>
         <v>F8</v>
       </c>
       <c r="P14" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L14,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>FF</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A15,9,1,""),2)</f>
+      <c r="E15" t="str">
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B15,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>02</v>
       </c>
-      <c r="G15" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C15,9,1,""),2)</f>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
         <v>1F</v>
       </c>
       <c r="H15" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D15,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>FF</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="0" t="s">
+      <c r="J15" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I15,1,1,""),2)</f>
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
       <c r="N15" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J15,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="O15" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K15,1,1,""),2)</f>
+      <c r="O15" t="str">
+        <f t="shared" si="5"/>
         <v>F8</v>
       </c>
       <c r="P15" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L15,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>FF</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A16,9,1,""),2)</f>
+      <c r="E16" t="str">
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B16,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>FF</v>
       </c>
-      <c r="G16" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C16,9,1,""),2)</f>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
       <c r="H16" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D16,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J16" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" t="s">
         <v>7</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I16,1,1,""),2)</f>
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
       <c r="N16" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J16,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>FF</v>
       </c>
-      <c r="O16" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K16,1,1,""),2)</f>
+      <c r="O16" t="str">
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
       <c r="P16" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L16,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A17,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F17" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B17,9,1,""),2)</f>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
         <v>FC</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C17,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H17" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D17,9,1,""),2)</f>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
         <v>FF</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="0" t="s">
+      <c r="J17" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" t="s">
         <v>7</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" t="s">
         <v>35</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I17,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N17" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J17,1,1,""),2)</f>
+      <c r="N17" t="str">
+        <f t="shared" si="4"/>
         <v>3F</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K17,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P17" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L17,1,1,""),2)</f>
+      <c r="P17" t="str">
+        <f t="shared" si="6"/>
         <v>FF</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A18,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7E</v>
       </c>
-      <c r="F18" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B18,9,1,""),2)</f>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C18,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H18" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D18,9,1,""),2)</f>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
         <v>FF</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="0" t="s">
+      <c r="J18" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" t="s">
         <v>35</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I18,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>7E</v>
       </c>
-      <c r="N18" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J18,1,1,""),2)</f>
+      <c r="N18" t="str">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K18,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P18" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L18,1,1,""),2)</f>
+      <c r="P18" t="str">
+        <f t="shared" si="6"/>
         <v>FF</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A19,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7E</v>
       </c>
-      <c r="F19" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B19,9,1,""),2)</f>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C19,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H19" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D19,9,1,""),2)</f>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
         <v>A5</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="0" t="s">
+      <c r="J19" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" t="s">
         <v>51</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I19,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>7E</v>
       </c>
-      <c r="N19" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J19,1,1,""),2)</f>
+      <c r="N19" t="str">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K19,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P19" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L19,1,1,""),2)</f>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
         <v>A5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A20,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7E</v>
       </c>
-      <c r="F20" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B20,9,1,""),2)</f>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C20,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H20" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D20,9,1,""),2)</f>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="0" t="s">
+      <c r="J20" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" t="s">
         <v>47</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I20,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>7E</v>
       </c>
-      <c r="N20" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J20,1,1,""),2)</f>
+      <c r="N20" t="str">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K20,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P20" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L20,1,1,""),2)</f>
+      <c r="P20" t="str">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>52</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A21,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F21" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B21,9,1,""),2)</f>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C21,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H21" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D21,9,1,""),2)</f>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="0" t="s">
+      <c r="J21" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" t="s">
         <v>53</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I21,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N21" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J21,1,1,""),2)</f>
+      <c r="N21" t="str">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K21,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P21" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L21,1,1,""),2)</f>
+      <c r="P21" t="str">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A22,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>7F</v>
       </c>
-      <c r="F22" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B22,9,1,""),2)</f>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C22,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H22" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D22,9,1,""),2)</f>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" t="s">
         <v>47</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I22,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FE</v>
       </c>
-      <c r="N22" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J22,1,1,""),2)</f>
+      <c r="N22" t="str">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K22,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P22" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L22,1,1,""),2)</f>
+      <c r="P22" t="str">
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>54</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A23,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
-      <c r="F23" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B23,9,1,""),2)</f>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
         <v>04</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C23,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
-      <c r="H23" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D23,9,1,""),2)</f>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
         <v>04</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="J23" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" t="s">
         <v>7</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" t="s">
         <v>55</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I23,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
-      <c r="N23" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J23,1,1,""),2)</f>
+      <c r="N23" t="str">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K23,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
-      <c r="P23" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L23,1,1,""),2)</f>
+      <c r="P23" t="str">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A24,9,1,""),2)</f>
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
-      <c r="F24" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B24,9,1,""),2)</f>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C24,9,1,""),2)</f>
+        <f t="shared" si="1"/>
         <v>3B</v>
       </c>
-      <c r="H24" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D24,9,1,""),2)</f>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="J24" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" t="s">
         <v>57</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I24,1,1,""),2)</f>
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
-      <c r="N24" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J24,1,1,""),2)</f>
+      <c r="N24" t="str">
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K24,1,1,""),2)</f>
+        <f t="shared" si="5"/>
         <v>DC</v>
       </c>
-      <c r="P24" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L24,1,1,""),2)</f>
+      <c r="P24" t="str">
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A25,9,1,""),2)</f>
+      <c r="E25" t="str">
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="F25" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B25,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G25" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C25,9,1,""),2)</f>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
         <v>3B</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D25,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="0" t="s">
+      <c r="J25" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I25,1,1,""),2)</f>
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="N25" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J25,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
-      <c r="O25" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K25,1,1,""),2)</f>
+      <c r="O25" t="str">
+        <f t="shared" si="5"/>
         <v>DC</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L25,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A26,9,1,""),2)</f>
+      <c r="E26" t="str">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="F26" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B26,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>C0</v>
       </c>
-      <c r="G26" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C26,9,1,""),2)</f>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H26" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D26,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" t="s">
         <v>62</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I26,1,1,""),2)</f>
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
         <v>8E</v>
       </c>
       <c r="N26" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J26,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
-      <c r="O26" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K26,1,1,""),2)</f>
+      <c r="O26" t="str">
+        <f t="shared" si="5"/>
         <v>9C</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L26,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A27,9,1,""),2)</f>
+      <c r="E27" t="str">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="F27" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B27,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>C0</v>
       </c>
-      <c r="G27" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C27,9,1,""),2)</f>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H27" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D27,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>C0</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="0" t="s">
+      <c r="J27" t="s">
         <v>11</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I27,1,1,""),2)</f>
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
         <v>8E</v>
       </c>
       <c r="N27" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J27,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
-      <c r="O27" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K27,1,1,""),2)</f>
+      <c r="O27" t="str">
+        <f t="shared" si="5"/>
         <v>9C</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L27,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A28,9,1,""),2)</f>
+      <c r="E28" t="str">
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B28,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>C0</v>
       </c>
-      <c r="G28" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C28,9,1,""),2)</f>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D28,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>C0</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" t="s">
         <v>65</v>
       </c>
-      <c r="J28" s="0" t="s">
+      <c r="J28" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I28,1,1,""),2)</f>
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
         <v>0E</v>
       </c>
       <c r="N28" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J28,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
-      <c r="O28" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K28,1,1,""),2)</f>
+      <c r="O28" t="str">
+        <f t="shared" si="5"/>
         <v>9C</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L28,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>03</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A29,9,1,""),2)</f>
+      <c r="E29" t="str">
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B29,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>C0</v>
       </c>
-      <c r="G29" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C29,9,1,""),2)</f>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H29" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D29,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="0" t="s">
+      <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I29,1,1,""),2)</f>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
         <v>0E</v>
       </c>
       <c r="N29" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J29,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
-      <c r="O29" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K29,1,1,""),2)</f>
+      <c r="O29" t="str">
+        <f t="shared" si="5"/>
         <v>9C</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L29,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A30,9,1,""),2)</f>
+      <c r="E30" t="str">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B30,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G30" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C30,9,1,""),2)</f>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H30" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D30,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" t="s">
         <v>62</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" t="s">
         <v>63</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I30,1,1,""),2)</f>
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
         <v>8E</v>
       </c>
       <c r="N30" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J30,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>01</v>
       </c>
-      <c r="O30" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K30,1,1,""),2)</f>
+      <c r="O30" t="str">
+        <f t="shared" si="5"/>
         <v>9C</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L30,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A31,9,1,""),2)</f>
+      <c r="E31" t="str">
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B31,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>C0</v>
       </c>
-      <c r="G31" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C31,9,1,""),2)</f>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H31" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D31,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="0" t="s">
+      <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I31,1,1,""),2)</f>
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
         <v>8E</v>
       </c>
       <c r="N31" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J31,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>03</v>
       </c>
-      <c r="O31" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K31,1,1,""),2)</f>
+      <c r="O31" t="str">
+        <f t="shared" si="5"/>
         <v>CC</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L31,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(A32,9,1,""),2)</f>
+      <c r="E32" t="str">
+        <f t="shared" si="7"/>
         <v>F9</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(B32,9,1,""),2)</f>
+        <f t="shared" si="0"/>
         <v>F0</v>
       </c>
-      <c r="G32" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(C32,9,1,""),2)</f>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
         <v>3F</v>
       </c>
       <c r="H32" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(D32,9,1,""),2)</f>
+        <f t="shared" si="2"/>
         <v>E0</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="J32" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" t="s">
         <v>7</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(I32,1,1,""),2)</f>
+      <c r="M32" t="str">
+        <f t="shared" si="3"/>
         <v>9F</v>
       </c>
       <c r="N32" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(J32,1,1,""),2)</f>
+        <f t="shared" si="4"/>
         <v>0F</v>
       </c>
-      <c r="O32" s="0" t="str">
-        <f aca="false">BIN2HEX(REPLACE(K32,1,1,""),2)</f>
+      <c r="O32" t="str">
+        <f t="shared" si="5"/>
         <v>FC</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f aca="false">BIN2HEX(REPLACE(L32,1,1,""),2)</f>
+        <f t="shared" si="6"/>
         <v>07</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P37" s="0" t="s">
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25:P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="9" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:H1" si="0">CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#E0</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>#E0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,9,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" ref="N1:P1" si="1">CONCATENATE("#",BIN2HEX(REPLACE(J1,9,1,""),2))</f>
+        <v>#07</v>
+      </c>
+      <c r="O1" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:E32" si="2">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F32" si="3">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#F0</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G32" si="4">CONCATENATE("#",BIN2HEX(REPLACE(C2,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H32" si="5">CONCATENATE("#",BIN2HEX(REPLACE(D2,1,1,""),2))</f>
+        <v>#F0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f t="shared" ref="M2:M32" si="6">CONCATENATE("#",BIN2HEX(REPLACE(I2,9,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N32" si="7">CONCATENATE("#",BIN2HEX(REPLACE(J2,9,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f t="shared" ref="O2:O32" si="8">CONCATENATE("#",BIN2HEX(REPLACE(K2,9,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P32" si="9">CONCATENATE("#",BIN2HEX(REPLACE(L2,9,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#03</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>#F8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="7"/>
+        <v>#1F</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#C0</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="9"/>
+        <v>#1F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>#F8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>#1F</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#E0</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="9"/>
+        <v>#1F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>#B0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>#1F</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#E0</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="9"/>
+        <v>#0D</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#03</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>#B0</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>#A0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>#0D</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#C0</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
+        <v>#05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#03</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>#A0</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>#F8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>#05</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#C0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
+        <v>#1F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#01</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>#D8</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>#D8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>#1B</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#80</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
+        <v>#1B</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#F0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#0F</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>#00</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#0F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#C0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#03</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>#E0</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>#1C</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#78</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>#38</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#1E</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v>#30</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#1C</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>#3E</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>#1B</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#7C</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>#7C</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#3F</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v>#D8</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#3E</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>#37</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#EC</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>#1B</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#EE</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>#EC</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#37</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v>#D8</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>#74</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#6E</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>#3C</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#6E</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>#2E</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#76</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v>#3C</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>#57</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#CE</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>#2F</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#CA</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>#EA</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#73</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>#F4</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>#54</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#4A</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>#2C</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#4A</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>#2A</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#52</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="8"/>
+        <v>#34</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#37</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>#CA</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#37</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>#C7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>112</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#EC</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="7"/>
+        <v>#53</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#EC</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="9"/>
+        <v>#E3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#34</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>#47</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#34</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v>#43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#2C</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="7"/>
+        <v>#E2</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#2C</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="9"/>
+        <v>#C2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>#C3</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#37</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="5"/>
+        <v>#C1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="7"/>
+        <v>#C3</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#EC</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="9"/>
+        <v>#83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#64</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>#81</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#74</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#26</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="7"/>
+        <v>#81</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#2E</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="9"/>
+        <v>#01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#77</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>#C0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="7"/>
+        <v>#03</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#EE</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="9"/>
+        <v>#03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#08</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>#40</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#28</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>#40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
+        <v>133</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#10</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v>#02</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#14</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="9"/>
+        <v>#02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>#C0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="7"/>
+        <v>#03</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#F0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="9"/>
+        <v>#03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>#1C</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>#E0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>#38</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v>#07</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>#30</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="9"/>
+        <v>#07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>#18</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#E0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>#18</v>
+      </c>
+      <c r="N25" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#07</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="8"/>
+        <v>#30</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>#30</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#70</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#38</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="6"/>
+        <v>#0C</v>
+      </c>
+      <c r="N26" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#0E</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="8"/>
+        <v>#30</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#1C</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>#30</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#30</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" t="s">
+        <v>119</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="6"/>
+        <v>#0C</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#0C</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="8"/>
+        <v>#30</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>#30</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#38</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="6"/>
+        <v>#0C</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#1C</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="8"/>
+        <v>#30</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>#30</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#28</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>#14</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="6"/>
+        <v>#0C</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#14</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="8"/>
+        <v>#28</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>#50</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#28</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>#14</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K30" t="s">
+        <v>139</v>
+      </c>
+      <c r="L30" t="s">
+        <v>139</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="6"/>
+        <v>#0A</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#14</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="8"/>
+        <v>#28</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>#58</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#2C</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>#16</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
+        <v>#1A</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#34</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="8"/>
+        <v>#68</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>#7E</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="I32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f t="shared" si="7"/>
+        <v>#7E</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="8"/>
+        <v>#FC</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>#FC</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
     <sheet name="esqueleto" sheetId="2" r:id="rId2"/>
+    <sheet name="caballero" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="199">
   <si>
     <t>00011111n</t>
   </si>
@@ -466,13 +467,169 @@
   </si>
   <si>
     <t>00000001n</t>
+  </si>
+  <si>
+    <t>n00011110</t>
+  </si>
+  <si>
+    <t>n11001111</t>
+  </si>
+  <si>
+    <t>n00110101</t>
+  </si>
+  <si>
+    <t>n11110101</t>
+  </si>
+  <si>
+    <t>n11010101</t>
+  </si>
+  <si>
+    <t>n11111101</t>
+  </si>
+  <si>
+    <t>n00011111</t>
+  </si>
+  <si>
+    <t>n11100011</t>
+  </si>
+  <si>
+    <t>n01100011</t>
+  </si>
+  <si>
+    <t>n00000110</t>
+  </si>
+  <si>
+    <t>n10000011</t>
+  </si>
+  <si>
+    <t>n10000110</t>
+  </si>
+  <si>
+    <t>n10000010</t>
+  </si>
+  <si>
+    <t>n01101010</t>
+  </si>
+  <si>
+    <t>n01100111</t>
+  </si>
+  <si>
+    <t>n00011010</t>
+  </si>
+  <si>
+    <t>n01111010</t>
+  </si>
+  <si>
+    <t>n11110110</t>
+  </si>
+  <si>
+    <t>n10110110</t>
+  </si>
+  <si>
+    <t>n11100110</t>
+  </si>
+  <si>
+    <t>n11000110</t>
+  </si>
+  <si>
+    <t>n00011101</t>
+  </si>
+  <si>
+    <t>n01100000</t>
+  </si>
+  <si>
+    <t>n10011110</t>
+  </si>
+  <si>
+    <t>n10001100</t>
+  </si>
+  <si>
+    <t>n10000100</t>
+  </si>
+  <si>
+    <t>01111000n</t>
+  </si>
+  <si>
+    <t>11110011n</t>
+  </si>
+  <si>
+    <t>10101100n</t>
+  </si>
+  <si>
+    <t>10101011n</t>
+  </si>
+  <si>
+    <t>10101111n</t>
+  </si>
+  <si>
+    <t>10111111n</t>
+  </si>
+  <si>
+    <t>11111000n</t>
+  </si>
+  <si>
+    <t>01100000n</t>
+  </si>
+  <si>
+    <t>11000111n</t>
+  </si>
+  <si>
+    <t>11000110n</t>
+  </si>
+  <si>
+    <t>11000001n</t>
+  </si>
+  <si>
+    <t>01100001n</t>
+  </si>
+  <si>
+    <t>01000001n</t>
+  </si>
+  <si>
+    <t>11100110n</t>
+  </si>
+  <si>
+    <t>01011000n</t>
+  </si>
+  <si>
+    <t>01010110n</t>
+  </si>
+  <si>
+    <t>01011110n</t>
+  </si>
+  <si>
+    <t>10111000n</t>
+  </si>
+  <si>
+    <t>00000110n</t>
+  </si>
+  <si>
+    <t>01101101n</t>
+  </si>
+  <si>
+    <t>01101111n</t>
+  </si>
+  <si>
+    <t>01100111n</t>
+  </si>
+  <si>
+    <t>01100011n</t>
+  </si>
+  <si>
+    <t>01111001n</t>
+  </si>
+  <si>
+    <t>00110001n</t>
+  </si>
+  <si>
+    <t>00100001n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -480,8 +637,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +662,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -513,10 +687,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,13 +1051,13 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +1115,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -993,7 +1173,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1231,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1109,7 +1289,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1167,7 +1347,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1225,7 +1405,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1283,7 +1463,7 @@
         <v>02</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1341,7 +1521,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1399,7 +1579,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1637,7 @@
         <v>02</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1695,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1753,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1811,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1869,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1927,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1805,7 +1985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1863,7 +2043,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1921,7 +2101,7 @@
         <v>FF</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1979,7 +2159,7 @@
         <v>A5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2037,7 +2217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2153,7 +2333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2449,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2327,7 +2507,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2385,7 +2565,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2443,7 +2623,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -2501,7 +2681,7 @@
         <v>03</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2559,7 +2739,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -2617,7 +2797,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2675,7 +2855,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2733,7 +2913,7 @@
         <v>07</v>
       </c>
     </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:16">
       <c r="P37" t="s">
         <v>72</v>
       </c>
@@ -2748,11 +2928,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:P32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2760,7 +2940,7 @@
     <col min="9" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2818,7 +2998,7 @@
         <v>#07</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +3056,7 @@
         <v>#0F</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2934,7 +3114,7 @@
         <v>#1F</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2992,7 +3172,7 @@
         <v>#1F</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3230,7 @@
         <v>#0D</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3288,7 @@
         <v>#05</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3346,7 @@
         <v>#1F</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3224,7 +3404,7 @@
         <v>#1B</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3282,7 +3462,7 @@
         <v>#0F</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3340,7 +3520,7 @@
         <v>#03</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -3398,7 +3578,7 @@
         <v>#1C</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -3456,7 +3636,7 @@
         <v>#3E</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -3514,7 +3694,7 @@
         <v>#77</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -3572,7 +3752,7 @@
         <v>#76</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -3630,7 +3810,7 @@
         <v>#53</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -3688,7 +3868,7 @@
         <v>#52</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -3746,7 +3926,7 @@
         <v>#E3</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -3804,7 +3984,7 @@
         <v>#C2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3862,7 +4042,7 @@
         <v>#83</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -3920,7 +4100,7 @@
         <v>#01</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -3978,7 +4158,7 @@
         <v>#03</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>103</v>
       </c>
@@ -4036,7 +4216,7 @@
         <v>#02</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -4094,7 +4274,7 @@
         <v>#03</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -4152,7 +4332,7 @@
         <v>#07</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -4210,7 +4390,7 @@
         <v>#07</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -4268,7 +4448,7 @@
         <v>#1C</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4326,7 +4506,7 @@
         <v>#18</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4384,7 +4564,7 @@
         <v>#18</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -4442,7 +4622,7 @@
         <v>#28</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>107</v>
       </c>
@@ -4500,7 +4680,7 @@
         <v>#28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -4558,7 +4738,7 @@
         <v>#68</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -4624,4 +4804,1879 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:H1" si="0">CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="G1" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="5" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,9,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" ref="N1:P1" si="1">CONCATENATE("#",BIN2HEX(REPLACE(J1,9,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="O1" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f t="shared" ref="E2:E31" si="2">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#1E</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F31" si="3">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f t="shared" ref="G2:G31" si="4">CONCATENATE("#",BIN2HEX(REPLACE(C2,1,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H31" si="5">CONCATENATE("#",BIN2HEX(REPLACE(D2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="str">
+        <f t="shared" ref="M2:M32" si="6">CONCATENATE("#",BIN2HEX(REPLACE(I2,9,1,""),2))</f>
+        <v>#78</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N32" si="7">CONCATENATE("#",BIN2HEX(REPLACE(J2,9,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="O2" s="5" t="str">
+        <f t="shared" ref="O2:O32" si="8">CONCATENATE("#",BIN2HEX(REPLACE(K2,9,1,""),2))</f>
+        <v>#F0</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P32" si="9">CONCATENATE("#",BIN2HEX(REPLACE(L2,9,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v>#02</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="7"/>
+        <v>#40</v>
+      </c>
+      <c r="O3" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#FC</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="9"/>
+        <v>#01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#70</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>#C3</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#38</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>#64</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#0E</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>#C3</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#1C</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="9"/>
+        <v>#26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#CF</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>#E3</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#67</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>#B6</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F3</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C7</v>
+      </c>
+      <c r="O5" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#E6</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="9"/>
+        <v>#6D</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#35</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>#63</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1A</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>#B6</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#AC</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>#C6</v>
+      </c>
+      <c r="O6" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#58</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
+        <v>#6D</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#D5</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>#63</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#6A</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>#B6</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#AB</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>#C6</v>
+      </c>
+      <c r="O7" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#56</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
+        <v>#6D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#F5</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>#63</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#4A</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>#B6</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#AF</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>#C6</v>
+      </c>
+      <c r="O8" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#52</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
+        <v>#6D</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>#F5</v>
+      </c>
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#63</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>#7A</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#B6</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>#AF</v>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C6</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>#5E</v>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#6D</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#63</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>#7E</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#B6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>#BF</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C6</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>#7E</v>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#6D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#E3</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#F6</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C7</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#6F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>#C7</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#C3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>#63</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#E6</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>#E3</v>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C3</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v>#C6</v>
+      </c>
+      <c r="P12" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>#38</v>
+      </c>
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#03</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>#1C</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#06</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>#1C</v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v>#38</v>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#E3</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#F6</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C7</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#6F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#C3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#E6</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N15" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C3</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>#F0</v>
+      </c>
+      <c r="P15" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#03</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#86</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="8"/>
+        <v>#E0</v>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="3"/>
+        <v>#83</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="5"/>
+        <v>#86</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="7"/>
+        <v>#C1</v>
+      </c>
+      <c r="O17" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="9"/>
+        <v>#61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="3"/>
+        <v>#C7</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="5"/>
+        <v>#C6</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="7"/>
+        <v>#E3</v>
+      </c>
+      <c r="O18" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="9"/>
+        <v>#63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O19" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="9"/>
+        <v>#7F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O20" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="9"/>
+        <v>#7F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="3"/>
+        <v>#86</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="5"/>
+        <v>#9E</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="7"/>
+        <v>#61</v>
+      </c>
+      <c r="O21" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="9"/>
+        <v>#79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="3"/>
+        <v>#82</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>#8C</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v>#41</v>
+      </c>
+      <c r="O22" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="9"/>
+        <v>#31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="5"/>
+        <v>#84</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M23" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="7"/>
+        <v>#01</v>
+      </c>
+      <c r="O23" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="9"/>
+        <v>#21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="5"/>
+        <v>#84</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="M24" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v>#01</v>
+      </c>
+      <c r="O24" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="9"/>
+        <v>#21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P25" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="8"/>
+        <v>#F8</v>
+      </c>
+      <c r="P26" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="6"/>
+        <v>#70</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="8"/>
+        <v>#F0</v>
+      </c>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>#06</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="4"/>
+        <v>#1D</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#C0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="6"/>
+        <v>#60</v>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="8"/>
+        <v>#B8</v>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>#06</v>
+      </c>
+      <c r="F29" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="4"/>
+        <v>#38</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#D8</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="6"/>
+        <v>#60</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="8"/>
+        <v>#1C</v>
+      </c>
+      <c r="P29" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#1B</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>#06</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="4"/>
+        <v>#70</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#F0</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="6"/>
+        <v>#60</v>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="8"/>
+        <v>#0E</v>
+      </c>
+      <c r="P30" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#0F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="4"/>
+        <v>#60</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>#70</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#01</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="8"/>
+        <v>#06</v>
+      </c>
+      <c r="P31" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#0E</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32" si="10">CONCATENATE("#",BIN2HEX(REPLACE(A32,1,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+      <c r="F32" s="5" t="str">
+        <f t="shared" ref="F32" si="11">CONCATENATE("#",BIN2HEX(REPLACE(B32,1,1,""),2))</f>
+        <v>#C0</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32" si="12">CONCATENATE("#",BIN2HEX(REPLACE(C32,1,1,""),2))</f>
+        <v>#38</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" ref="H32" si="13">CONCATENATE("#",BIN2HEX(REPLACE(D32,1,1,""),2))</f>
+        <v>#60</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>#03</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="8"/>
+        <v>#1C</v>
+      </c>
+      <c r="P32" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>#06</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
     <sheet name="esqueleto" sheetId="2" r:id="rId2"/>
     <sheet name="caballero" sheetId="3" r:id="rId3"/>
+    <sheet name="fuego" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="227">
   <si>
     <t>00011111n</t>
   </si>
@@ -623,6 +624,90 @@
   </si>
   <si>
     <t>00100001n</t>
+  </si>
+  <si>
+    <t>n00100011</t>
+  </si>
+  <si>
+    <t>n00100010</t>
+  </si>
+  <si>
+    <t>n00100101</t>
+  </si>
+  <si>
+    <t>n01101111</t>
+  </si>
+  <si>
+    <t>n10111110</t>
+  </si>
+  <si>
+    <t>n01111011</t>
+  </si>
+  <si>
+    <t>n10001000</t>
+  </si>
+  <si>
+    <t>n11011111</t>
+  </si>
+  <si>
+    <t>n11011110</t>
+  </si>
+  <si>
+    <t>n11101111</t>
+  </si>
+  <si>
+    <t>n11101000</t>
+  </si>
+  <si>
+    <t>n11110010</t>
+  </si>
+  <si>
+    <t>n11010000</t>
+  </si>
+  <si>
+    <t>n11111010</t>
+  </si>
+  <si>
+    <t>n11011010</t>
+  </si>
+  <si>
+    <t>n10111011</t>
+  </si>
+  <si>
+    <t>n00111101</t>
+  </si>
+  <si>
+    <t>n00000100</t>
+  </si>
+  <si>
+    <t>n00010001</t>
+  </si>
+  <si>
+    <t>n00010111</t>
+  </si>
+  <si>
+    <t>n01001111</t>
+  </si>
+  <si>
+    <t>n00001011</t>
+  </si>
+  <si>
+    <t>n01011111</t>
+  </si>
+  <si>
+    <t>n01011011</t>
+  </si>
+  <si>
+    <t>n11000100</t>
+  </si>
+  <si>
+    <t>n01000100</t>
+  </si>
+  <si>
+    <t>n10100100</t>
+  </si>
+  <si>
+    <t>n01111101</t>
   </si>
 </sst>
 </file>
@@ -643,7 +728,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +759,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -687,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -697,6 +788,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2929,7 +3021,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4810,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6679,4 +6771,979 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:H1" si="0">CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E32" si="1">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F32" si="2">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#88</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G32" si="3">CONCATENATE("#",BIN2HEX(REPLACE(C2,1,1,""),2))</f>
+        <v>#11</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H32" si="4">CONCATENATE("#",BIN2HEX(REPLACE(D2,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="2"/>
+        <v>#C0</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="3"/>
+        <v>#03</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="4"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>#07</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>#20</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>#07</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="2"/>
+        <v>#E8</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>#17</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>#23</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>#70</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>#0E</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>#C4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>#03</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>#0F</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>#22</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>#0F</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>#44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v>#F2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>#4F</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>#25</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>#D0</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>#0B</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>#A4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>#6F</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v>#FA</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>#5F</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>#F6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v>#FA</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>#5F</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>#7B</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v>#DA</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>#5B</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>#DE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>#7F</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>#BE</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>#7F</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>#7D</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>#BB</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v>#DF</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>#BB</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v>#DF</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>#EF</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>#EF</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>#7E</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="4"/>
+        <v>#7E</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>#77</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v>#EE</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>#77</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="4"/>
+        <v>#EE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>#7F</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="4"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>#7E</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>#7E</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="4"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>#7F</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="4"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v>#EC</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>#3F</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="4"/>
+        <v>#EC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>#3D</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>#3D</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="4"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>#1F</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="3"/>
+        <v>#1F</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="4"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>#0F</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>#03</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v>#C0</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>#03</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
     <sheet name="esqueleto" sheetId="2" r:id="rId2"/>
     <sheet name="caballero" sheetId="3" r:id="rId3"/>
     <sheet name="fuego" sheetId="4" r:id="rId4"/>
+    <sheet name="fantasma" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="239">
   <si>
     <t>00011111n</t>
   </si>
@@ -708,6 +709,42 @@
   </si>
   <si>
     <t>n01111101</t>
+  </si>
+  <si>
+    <t>n11111011</t>
+  </si>
+  <si>
+    <t>n00010011</t>
+  </si>
+  <si>
+    <t>n00011001</t>
+  </si>
+  <si>
+    <t>n11001000</t>
+  </si>
+  <si>
+    <t>n00100110</t>
+  </si>
+  <si>
+    <t>n10010000</t>
+  </si>
+  <si>
+    <t>n00001001</t>
+  </si>
+  <si>
+    <t>n00010000</t>
+  </si>
+  <si>
+    <t>n00111001</t>
+  </si>
+  <si>
+    <t>n11110111</t>
+  </si>
+  <si>
+    <t>n10111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
   </si>
 </sst>
 </file>
@@ -6777,8 +6814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7746,4 +7783,952 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:H1" si="0">CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#03</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" si="0"/>
+        <v>#C0</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" ref="N1:P1" si="1">CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#03</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E16" si="2">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F16" si="3">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="4">CONCATENATE("#",BIN2HEX(REPLACE(C2,1,1,""),2))</f>
+        <v>#F0</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H16" si="5">CONCATENATE("#",BIN2HEX(REPLACE(D2,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M16" si="6">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N16" si="7">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O16" si="8">CONCATENATE("#",BIN2HEX(REPLACE(K2,1,1,""),2))</f>
+        <v>#F0</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P16" si="9">CONCATENATE("#",BIN2HEX(REPLACE(L2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v>#0F</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="4"/>
+        <v>#F0</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>#26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="6"/>
+        <v>#64</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="7"/>
+        <v>#0F</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="8"/>
+        <v>#F0</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="9"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>#19</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>#C8</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>#7C</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>228</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="6"/>
+        <v>#3E</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>#13</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="8"/>
+        <v>#98</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="9"/>
+        <v>#1F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>#7E</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>#3C</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>#9C</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>#7E</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="6"/>
+        <v>#7E</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>#39</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="8"/>
+        <v>#3C</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="9"/>
+        <v>#7E</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>#FC</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>#FC</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>#1F</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>#F8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>#1F</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>#F8</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="8"/>
+        <v>#3F</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>#FB</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>#EF</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v>#FC</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v>#F7</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>#DF</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="9"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>#FC</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="9"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v>#C8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>#13</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="9"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>#1B</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="5"/>
+        <v>#90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>#09</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="9"/>
+        <v>#D8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>#11</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>#FD</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v>#08</v>
+      </c>
+      <c r="I13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>#10</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v>#BF</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="9"/>
+        <v>#88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>#F0</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v>#0F</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v>#FF</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="9"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>#3F</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>#F8</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>#C0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>#03</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>#1F</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>#FC</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="9"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>#07</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="8"/>
+        <v>#E0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="9"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="caballero" sheetId="3" r:id="rId3"/>
     <sheet name="fuego" sheetId="4" r:id="rId4"/>
     <sheet name="fantasma" sheetId="5" r:id="rId5"/>
+    <sheet name="magia" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="247">
   <si>
     <t>00011111n</t>
   </si>
@@ -745,6 +746,30 @@
   </si>
   <si>
     <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t>n01001000</t>
+  </si>
+  <si>
+    <t>n01011100</t>
+  </si>
+  <si>
+    <t>n01000010</t>
+  </si>
+  <si>
+    <t>n10010001</t>
+  </si>
+  <si>
+    <t>n10000101</t>
+  </si>
+  <si>
+    <t>n10001001</t>
+  </si>
+  <si>
+    <t>n10100001</t>
+  </si>
+  <si>
+    <t>n00111010</t>
   </si>
 </sst>
 </file>
@@ -7789,8 +7814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8731,4 +8756,947 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:H1" si="0">CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#3C</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" si="0"/>
+        <v>#3C</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="N1" t="str">
+        <f t="shared" ref="N1:P1" si="1">CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#3C</v>
+      </c>
+      <c r="O1" t="str">
+        <f t="shared" si="1"/>
+        <v>#3C</v>
+      </c>
+      <c r="P1" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E16" si="2">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F16" si="3">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#42</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="4">CONCATENATE("#",BIN2HEX(REPLACE(C2,1,1,""),2))</f>
+        <v>#42</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H16" si="5">CONCATENATE("#",BIN2HEX(REPLACE(D2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M16" si="6">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N16" si="7">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#42</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O16" si="8">CONCATENATE("#",BIN2HEX(REPLACE(K2,1,1,""),2))</f>
+        <v>#42</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P16" si="9">CONCATENATE("#",BIN2HEX(REPLACE(L2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="3"/>
+        <v>#42</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="4"/>
+        <v>#42</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="5"/>
+        <v>#70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" si="6"/>
+        <v>#0E</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="7"/>
+        <v>#42</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="8"/>
+        <v>#42</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="9"/>
+        <v>#70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>#11</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>#91</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>#81</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>#88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="6"/>
+        <v>#11</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>#81</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="8"/>
+        <v>#89</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="9"/>
+        <v>#88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>#10</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>#04</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>#04</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="6"/>
+        <v>#20</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>#20</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="8"/>
+        <v>#08</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="9"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>#48</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>#7C</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
+        <v>#0E</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>#02</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v>#40</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>#70</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="8"/>
+        <v>#3E</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
+        <v>#12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>#5C</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>#10</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>#84</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
+        <v>#02</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>#40</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>#21</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v>#08</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
+        <v>#3A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>#88</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>#11</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>#40</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>#21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>#84</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>#02</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="8"/>
+        <v>#88</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
+        <v>#11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>#81</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="4"/>
+        <v>#80</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v>#21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>#84</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v>#01</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>#00</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="9"/>
+        <v>#81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>#42</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>#FA</v>
+      </c>
+      <c r="I10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>241</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>#5F</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>#01</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="9"/>
+        <v>#42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>#40</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
+        <v>#08</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v>#22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>#44</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>#10</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v>#20</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="9"/>
+        <v>#82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="4"/>
+        <v>#14</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="5"/>
+        <v>#24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>216</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>#24</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v>#28</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v>#70</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="9"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>#11</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="3"/>
+        <v>#85</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="4"/>
+        <v>#89</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="5"/>
+        <v>#88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" t="s">
+        <v>242</v>
+      </c>
+      <c r="K13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L13" t="s">
+        <v>205</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>#11</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v>#91</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v>#A1</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="9"/>
+        <v>#88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="3"/>
+        <v>#42</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="4"/>
+        <v>#42</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="5"/>
+        <v>#70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K14" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>#0E</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v>#42</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v>#42</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="9"/>
+        <v>#70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>#44</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="4"/>
+        <v>#44</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K15" t="s">
+        <v>224</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>#44</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>#44</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="9"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="3"/>
+        <v>#38</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="4"/>
+        <v>#38</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>#38</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="8"/>
+        <v>#38</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="9"/>
+        <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="fuego" sheetId="4" r:id="rId4"/>
     <sheet name="fantasma" sheetId="5" r:id="rId5"/>
     <sheet name="magia" sheetId="6" r:id="rId6"/>
+    <sheet name="jefevampiro" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="254">
   <si>
     <t>00011111n</t>
   </si>
@@ -770,6 +771,27 @@
   </si>
   <si>
     <t>n00111010</t>
+  </si>
+  <si>
+    <t>n11101011</t>
+  </si>
+  <si>
+    <t>n11111001</t>
+  </si>
+  <si>
+    <t>n11110001</t>
+  </si>
+  <si>
+    <t>n00111011</t>
+  </si>
+  <si>
+    <t>n10001111</t>
+  </si>
+  <si>
+    <t>n11010111</t>
+  </si>
+  <si>
+    <t>n11110011</t>
   </si>
 </sst>
 </file>
@@ -8762,8 +8784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9699,4 +9721,467 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="254">
   <si>
     <t>00011111n</t>
   </si>
@@ -8785,7 +8785,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9725,449 +9725,1813 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="O17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#04</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>169</v>
       </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D32" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#60</v>
+      </c>
       <c r="E2" t="s">
         <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#06</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#60</v>
+      </c>
+      <c r="M2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O33" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#06</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P33" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>232</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#90</v>
+      </c>
       <c r="E3" t="s">
         <v>233</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#09</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#90</v>
+      </c>
+      <c r="M3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#09</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>237</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
       <c r="E4" t="s">
         <v>152</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#BF</v>
+      </c>
+      <c r="M4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#FD</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>237</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
       <c r="E6" t="s">
         <v>152</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#BF</v>
+      </c>
+      <c r="M6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#FD</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>237</v>
       </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
       <c r="E7" t="s">
         <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#BF</v>
+      </c>
+      <c r="M7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#FD</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#EF</v>
+      </c>
+      <c r="M11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#F7</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>208</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#EF</v>
+      </c>
       <c r="E12" t="s">
         <v>236</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#F7</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#E3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#C7</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>247</v>
       </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#EB</v>
+      </c>
       <c r="E13" t="s">
         <v>252</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#D7</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I13" t="s">
+        <v>216</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#04</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#0E</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
       <c r="E15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#1E</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#78</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#1E</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#04</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#7C</v>
+      </c>
       <c r="E16" t="s">
         <v>80</v>
       </c>
       <c r="F16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#3E</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" t="s">
+        <v>204</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#7B</v>
+      </c>
+      <c r="M16" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#DE</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>250</v>
       </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#0E</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#3B</v>
+      </c>
       <c r="E18" t="s">
         <v>57</v>
       </c>
       <c r="F18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#DC</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>147</v>
       </c>
       <c r="B19" t="s">
         <v>153</v>
       </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#1E</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
       <c r="E19" t="s">
         <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#1F</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
       <c r="E20" t="s">
         <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#7F</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#0F</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#7F</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#7F</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#FE</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#FE</v>
+      </c>
+      <c r="I24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#FD</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#BF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>208</v>
       </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#EF</v>
+      </c>
       <c r="E25" t="s">
         <v>236</v>
       </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#F7</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#FE</v>
+      </c>
+      <c r="I25" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#F9</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#EF</v>
+      </c>
+      <c r="M25" t="s">
+        <v>236</v>
+      </c>
+      <c r="N25" t="s">
+        <v>70</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#F7</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#9F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>148</v>
       </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#CF</v>
+      </c>
       <c r="E26" t="s">
         <v>253</v>
       </c>
       <c r="F26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#F3</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#F1</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#CF</v>
+      </c>
+      <c r="M26" t="s">
+        <v>253</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#F3</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#8F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>251</v>
       </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#FD</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#8F</v>
+      </c>
       <c r="E27" t="s">
         <v>249</v>
       </c>
       <c r="F27" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#F1</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#BF</v>
+      </c>
+      <c r="I27" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#60</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#8F</v>
+      </c>
+      <c r="M27" t="s">
+        <v>249</v>
+      </c>
+      <c r="N27" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#F1</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>248</v>
       </c>
       <c r="B28" t="s">
         <v>71</v>
       </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#F9</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
       <c r="E28" t="s">
         <v>249</v>
       </c>
       <c r="F28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#F1</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#9F</v>
+      </c>
+      <c r="I28" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#60</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#0F</v>
+      </c>
+      <c r="M28" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>249</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#F1</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#8F</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#40</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#07</v>
+      </c>
+      <c r="M29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>169</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#60</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#03</v>
+      </c>
       <c r="E30" t="s">
         <v>76</v>
       </c>
       <c r="F30" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#C0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#06</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#40</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#03</v>
+      </c>
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#02</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>169</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#60</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
       <c r="E31" t="s">
         <v>101</v>
       </c>
       <c r="F31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#06</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M31" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#40</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#02</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -10179,6 +11543,42 @@
       </c>
       <c r="F33" t="s">
         <v>21</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#02</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
       </c>
     </row>
   </sheetData>

--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="fantasma" sheetId="5" r:id="rId5"/>
     <sheet name="magia" sheetId="6" r:id="rId6"/>
     <sheet name="jefevampiro" sheetId="7" r:id="rId7"/>
+    <sheet name="jefe fantaasma" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="266">
   <si>
     <t>00011111n</t>
   </si>
@@ -792,6 +793,42 @@
   </si>
   <si>
     <t>n11110011</t>
+  </si>
+  <si>
+    <t>n00001010</t>
+  </si>
+  <si>
+    <t>n00000101</t>
+  </si>
+  <si>
+    <t>n10010111</t>
+  </si>
+  <si>
+    <t>n11100111</t>
+  </si>
+  <si>
+    <t>n10101111</t>
+  </si>
+  <si>
+    <t>n11101001</t>
+  </si>
+  <si>
+    <t>n01010011</t>
+  </si>
+  <si>
+    <t>n01100001</t>
+  </si>
+  <si>
+    <t>n01101001</t>
+  </si>
+  <si>
+    <t>n00101011</t>
+  </si>
+  <si>
+    <t>n11010110</t>
+  </si>
+  <si>
+    <t>n11010100</t>
   </si>
 </sst>
 </file>
@@ -9727,8 +9764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="O17:P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11584,4 +11621,1878 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#0A</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#05</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D32" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#02</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#A0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O32" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P32" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#25</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#02</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#A4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#03</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#03</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#C1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#03</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#1F</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#06</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#60</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#0C</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#1C</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#38</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#1C</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="I12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#77</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#EE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#61</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#0F</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>261</v>
+      </c>
+      <c r="J16" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#61</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#97</v>
+      </c>
+      <c r="M16" t="s">
+        <v>259</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#E9</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#E9</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#69</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#E7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N18" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#E7</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#D6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#E7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#E7</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#F3</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#CF</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#E3</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#C7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#DF</v>
+      </c>
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#FB</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>260</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#53</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#CA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#CA</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#53</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>263</v>
+      </c>
+      <c r="J22" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#2B</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#CA</v>
+      </c>
+      <c r="M22" t="s">
+        <v>260</v>
+      </c>
+      <c r="N22" t="s">
+        <v>265</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#53</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#D4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#E0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#E0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#07</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#F5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>258</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#AF</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#F5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>258</v>
+      </c>
+      <c r="N24" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#AF</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M26" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M27" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M28" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>77</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#1C</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>153</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#1F</v>
+      </c>
+      <c r="M32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A33,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D33" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B33,1,1,""),2))</f>
+        <v>#07</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#07</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ref="O33" si="8">CONCATENATE("#",BIN2HEX(REPLACE(M33,1,1,""),2))</f>
+        <v>#FF</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" ref="P33" si="9">CONCATENATE("#",BIN2HEX(REPLACE(N33,1,1,""),2))</f>
+        <v>#E0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="magia" sheetId="6" r:id="rId6"/>
     <sheet name="jefevampiro" sheetId="7" r:id="rId7"/>
     <sheet name="jefe fantaasma" sheetId="8" r:id="rId8"/>
+    <sheet name="jefe beholder" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="283">
   <si>
     <t>00011111n</t>
   </si>
@@ -829,6 +830,57 @@
   </si>
   <si>
     <t>n11010100</t>
+  </si>
+  <si>
+    <t>n00101001</t>
+  </si>
+  <si>
+    <t>n10111101</t>
+  </si>
+  <si>
+    <t>n11001001</t>
+  </si>
+  <si>
+    <t>n00100111</t>
+  </si>
+  <si>
+    <t>n00110001</t>
+  </si>
+  <si>
+    <t>n11100010</t>
+  </si>
+  <si>
+    <t>n11010010</t>
+  </si>
+  <si>
+    <t>n11101010</t>
+  </si>
+  <si>
+    <t>n10100111</t>
+  </si>
+  <si>
+    <t>n10010100</t>
+  </si>
+  <si>
+    <t>n10010011</t>
+  </si>
+  <si>
+    <t>n10111000</t>
+  </si>
+  <si>
+    <t>n01001011</t>
+  </si>
+  <si>
+    <t>n11100101</t>
+  </si>
+  <si>
+    <t>n11100100</t>
+  </si>
+  <si>
+    <t>n10101000</t>
+  </si>
+  <si>
+    <t>n10110111</t>
   </si>
 </sst>
 </file>
@@ -11627,8 +11679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13495,4 +13547,1878 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="O17:P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#03</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#C0</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#02</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#40</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#03</v>
+      </c>
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O33" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#C0</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P33" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#38</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#03</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#C0</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#1C</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#70</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#02</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#40</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#28</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#50</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#03</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#1C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#38</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#1C</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#78</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#9C</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#9C</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>275</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#94</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#94</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#9C</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#BD</v>
+      </c>
+      <c r="E8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#BD</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#BD</v>
+      </c>
+      <c r="M8" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#91</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#A1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#1C</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#85</v>
+      </c>
+      <c r="M9" t="s">
+        <v>245</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#A1</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#1C</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#C9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#93</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#14</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#C9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>276</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#93</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#14</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#5F</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#FA</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#1E</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#5F</v>
+      </c>
+      <c r="M11" t="s">
+        <v>212</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#FA</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#1D</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#B8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#A8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#02</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#F3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#CF</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#0C</v>
+      </c>
+      <c r="M15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#CF</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#F0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#E7</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#F0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#0F</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#18</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#E2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#47</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#E7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#B7</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#E2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#47</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#BF</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#E3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#C7</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#FD</v>
+      </c>
+      <c r="I19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#EF</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#E3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" t="s">
+        <v>236</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#C7</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#F7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#EF</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#F1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#8F</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#F7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s">
+        <v>249</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#F1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>251</v>
+      </c>
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#8F</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#FD</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>236</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#7F</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#F7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#F2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#4F</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#9F</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#F2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>219</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#4F</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#27</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#D2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#4B</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#E4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" t="s">
+        <v>272</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#67</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#D2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>278</v>
+      </c>
+      <c r="N25" t="s">
+        <v>280</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#4B</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#E4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#4F</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>233</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#09</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#F2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#90</v>
+      </c>
+      <c r="M26" t="s">
+        <v>233</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#09</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#F3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#1B</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#01</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#D8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#1B</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>75</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#D8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#31</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#EA</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#57</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#8C</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#31</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#EA</v>
+      </c>
+      <c r="M28" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#57</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#23</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#FA</v>
+      </c>
+      <c r="E29" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#5F</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#C4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#23</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#FA</v>
+      </c>
+      <c r="M29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#5F</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#C4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#64</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#44</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M30" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#8C</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#48</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N31" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#11</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#88</v>
+      </c>
+      <c r="I32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#11</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>#A7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#E5</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#0A</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#47</v>
+      </c>
+      <c r="M33" t="s">
+        <v>279</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="6"/>
+        <v>#E5</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="jefevampiro" sheetId="7" r:id="rId7"/>
     <sheet name="jefe fantaasma" sheetId="8" r:id="rId8"/>
     <sheet name="jefe beholder" sheetId="9" r:id="rId9"/>
+    <sheet name="jefe vampiro" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="293">
   <si>
     <t>00011111n</t>
   </si>
@@ -881,6 +882,36 @@
   </si>
   <si>
     <t>n10110111</t>
+  </si>
+  <si>
+    <t>n01100010</t>
+  </si>
+  <si>
+    <t>n01110001</t>
+  </si>
+  <si>
+    <t>n01000110</t>
+  </si>
+  <si>
+    <t>n01000101</t>
+  </si>
+  <si>
+    <t>n10100010</t>
+  </si>
+  <si>
+    <t>n11011011</t>
+  </si>
+  <si>
+    <t>n00110110</t>
+  </si>
+  <si>
+    <t>n01101100</t>
+  </si>
+  <si>
+    <t>n01001001</t>
+  </si>
+  <si>
+    <t>n10010010</t>
   </si>
 </sst>
 </file>
@@ -3189,6 +3220,981 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#03</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#C0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#0F</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D32" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#F0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G32" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H32" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#09</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#06</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#62</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#1D</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#B8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#F0</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#0F</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#71</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#8E</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#8E</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#3A</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#5C</v>
+      </c>
+      <c r="E9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#45</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#A2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#1C</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#23</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#C4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#0E</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#11</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#04</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#E0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#08</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#F0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#10</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#F0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#10</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#F0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#10</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>#F0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>#10</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#1B</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#D8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#24</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#F8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#F8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#F0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#37</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#EC</v>
+      </c>
+      <c r="E22" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#48</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#FC</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#40</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#3D</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#BC</v>
+      </c>
+      <c r="E24" t="s">
+        <v>241</v>
+      </c>
+      <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#42</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#FC</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#40</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#7B</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#DE</v>
+      </c>
+      <c r="E26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#84</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#6F</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#F6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#90</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#7E</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#7E</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#81</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#DB</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#DB</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#24</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#6F</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#F6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#90</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#36</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#6C</v>
+      </c>
+      <c r="E31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#49</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#3C</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#3C</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P32"/>
@@ -13553,8 +14559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="O17:P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="jefe fantaasma" sheetId="8" r:id="rId8"/>
     <sheet name="jefe beholder" sheetId="9" r:id="rId9"/>
     <sheet name="jefe vampiro" sheetId="10" r:id="rId10"/>
+    <sheet name="manos" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="298">
   <si>
     <t>00011111n</t>
   </si>
@@ -912,6 +913,21 @@
   </si>
   <si>
     <t>n10010010</t>
+  </si>
+  <si>
+    <t>n01000001</t>
+  </si>
+  <si>
+    <t>n11100001</t>
+  </si>
+  <si>
+    <t>n00110011</t>
+  </si>
+  <si>
+    <t>n00001101</t>
+  </si>
+  <si>
+    <t>n10000111</t>
   </si>
 </sst>
 </file>
@@ -3224,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4188,6 +4204,981 @@
       <c r="H32" t="str">
         <f t="shared" si="3"/>
         <v>#3C</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#81</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#41</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#C1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#30</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#E1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#1C</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#0E</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#71</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#3B</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#3B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#FB</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#FB</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#FB</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#DF</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#3F</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#DF</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
+      <c r="E11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#3B</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#7F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#3D</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#31</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#0D</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#20</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#20</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#7C</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#7C</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#83</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#87</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#0C</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#8E</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#8E</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#CC</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#E0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#0C</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#DC</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#DC</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#DF</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#DF</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#DF</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#FB</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#FB</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#FD</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#DC</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#FE</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#F8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#BC</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#8C</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#B0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#04</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>#3E</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>#04</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#3E</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
       </c>
     </row>
   </sheetData>

--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="jefe beholder" sheetId="9" r:id="rId9"/>
     <sheet name="jefe vampiro" sheetId="10" r:id="rId10"/>
     <sheet name="manos" sheetId="11" r:id="rId11"/>
+    <sheet name="jefecaballerod" sheetId="12" r:id="rId12"/>
+    <sheet name="jefecaballeroi" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="301">
   <si>
     <t>00011111n</t>
   </si>
@@ -928,6 +930,15 @@
   </si>
   <si>
     <t>n10000111</t>
+  </si>
+  <si>
+    <t>n01110011</t>
+  </si>
+  <si>
+    <t>n01111001</t>
+  </si>
+  <si>
+    <t>n11110100</t>
   </si>
 </sst>
 </file>
@@ -4215,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5178,6 +5189,3748 @@
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#02</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#08</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#04</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#07</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#08</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#03</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O33" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#04</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P33" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#0C</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#9F</v>
+      </c>
+      <c r="M3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#86</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#8C</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#BF</v>
+      </c>
+      <c r="M4" t="s">
+        <v>167</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#C6</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#CC</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#BF</v>
+      </c>
+      <c r="M5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#E6</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#EC</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#DF</v>
+      </c>
+      <c r="M6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#F6</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#DF</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#CC</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#EF</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#E6</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#DF</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#EF</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#02</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#10</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#08</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#F8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#20</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#FC</v>
+      </c>
+      <c r="M10" t="s">
+        <v>234</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#10</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#70</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#70</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#BF</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#9F</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#9F</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#DC</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#1F</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M18" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#DC</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#1E</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#5F</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#DC</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>221</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#3C</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#5F</v>
+      </c>
+      <c r="M19" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#DC</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#3C</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#DF</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#DC</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#DF</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#DC</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#DF</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#DC</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I21" t="s">
+        <v>257</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#E7</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#DF</v>
+      </c>
+      <c r="M21" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#DE</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#E7</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#5F</v>
+      </c>
+      <c r="E22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#9E</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>221</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#81</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#5F</v>
+      </c>
+      <c r="M22" t="s">
+        <v>237</v>
+      </c>
+      <c r="N22" t="s">
+        <v>14</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#BF</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#81</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#2F</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#FE</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#81</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#2F</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#7F</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#81</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="I24" t="s">
+        <v>257</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#E7</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M24" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#CF</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#E7</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#CF</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="I25" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#E7</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M25" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#CF</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#FE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#E7</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#7B</v>
+      </c>
+      <c r="E26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#CF</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#FE</v>
+      </c>
+      <c r="I26" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#67</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#CC</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#67</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#7B</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#8C</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#3E</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M27" t="s">
+        <v>172</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#84</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#3E</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#FB</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#C4</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#1C</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#1C</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#FB</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#C0</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#7B</v>
+      </c>
+      <c r="M29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#FB</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>298</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>298</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#73</v>
+      </c>
+      <c r="M31" t="s">
+        <v>101</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#F1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#7B</v>
+      </c>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#C0</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>#F8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M33" t="s">
+        <v>9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#E0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O32" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P32" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#F9</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#63</v>
+      </c>
+      <c r="M4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#FD</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#02</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#6F</v>
+      </c>
+      <c r="M6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#FB</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#FB</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>236</v>
+      </c>
+      <c r="N7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#F7</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#FB</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#1F</v>
+      </c>
+      <c r="M8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#F7</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#08</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#1C</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#04</v>
+      </c>
+      <c r="E10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#08</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#0E</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#0E</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#1F</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#7F</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M14" t="s">
+        <v>152</v>
+      </c>
+      <c r="N14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FD</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#F9</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M15" t="s">
+        <v>248</v>
+      </c>
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#F9</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#3B</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#3B</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#F8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#3B</v>
+      </c>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#FA</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#3B</v>
+      </c>
+      <c r="M19" t="s">
+        <v>212</v>
+      </c>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#FA</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#3C</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#3B</v>
+      </c>
+      <c r="E20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#FB</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#3C</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#3B</v>
+      </c>
+      <c r="M20" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#FB</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#FF</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#3B</v>
+      </c>
+      <c r="E21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#FB</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#FF</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#7B</v>
+      </c>
+      <c r="M21" t="s">
+        <v>227</v>
+      </c>
+      <c r="N21" t="s">
+        <v>257</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#FB</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#E7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#79</v>
+      </c>
+      <c r="E22" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#FA</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#E7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#7F</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#FD</v>
+      </c>
+      <c r="M22" t="s">
+        <v>212</v>
+      </c>
+      <c r="N22" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#FA</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E23" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#F4</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#81</v>
+      </c>
+      <c r="I23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="M23" t="s">
+        <v>300</v>
+      </c>
+      <c r="N23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#F4</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#81</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#FF</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#F3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>257</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#E7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#FF</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#F3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>257</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#E7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#7F</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#F3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>257</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#E7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#7F</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#F3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#DE</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#E7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>166</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#E6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#DE</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#E6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#21</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>82</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#7C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>206</v>
+      </c>
+      <c r="F28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#DF</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#7C</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>79</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#03</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#DF</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M29" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#DE</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#9F</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#CE</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#8E</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#CE</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#8F</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#03</v>
+      </c>
+      <c r="M32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#DE</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="E33" t="s">
+        <v>153</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#1F</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#0F</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" ref="O33" si="8">CONCATENATE("#",BIN2HEX(REPLACE(M33,1,1,""),2))</f>
+        <v>#FE</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" ref="P33" si="9">CONCATENATE("#",BIN2HEX(REPLACE(N33,1,1,""),2))</f>
         <v>#00</v>
       </c>
     </row>

--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="manos" sheetId="11" r:id="rId11"/>
     <sheet name="jefecaballerod" sheetId="12" r:id="rId12"/>
     <sheet name="jefecaballeroi" sheetId="13" r:id="rId13"/>
+    <sheet name="jefezombid" sheetId="14" r:id="rId14"/>
+    <sheet name="jefezombii" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="303">
   <si>
     <t>00011111n</t>
   </si>
@@ -939,6 +941,12 @@
   </si>
   <si>
     <t>n11110100</t>
+  </si>
+  <si>
+    <t>n10101100</t>
+  </si>
+  <si>
+    <t>n10010110</t>
   </si>
 </sst>
 </file>
@@ -5201,7 +5209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -8932,6 +8940,3748 @@
       <c r="P33" t="str">
         <f t="shared" ref="P33" si="9">CONCATENATE("#",BIN2HEX(REPLACE(N33,1,1,""),2))</f>
         <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="O17:P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#10</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#01</v>
+      </c>
+      <c r="M1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#10</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#FC</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O33" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#FC</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P33" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#F8</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#F8</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#01</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#E3</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#01</v>
+      </c>
+      <c r="M8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#E3</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#7E</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#7E</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#7F</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#7F</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#BF</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>169</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#BC</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#DF</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#DC</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#3F</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I13" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#17</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#08</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#28</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#10</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#10</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#0F</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#20</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#E0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#10</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#10</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E19" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#FD</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#78</v>
+      </c>
+      <c r="I20" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#10</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M20" t="s">
+        <v>249</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#F1</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#20</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#78</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M21" t="s">
+        <v>249</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#F1</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#7C</v>
+      </c>
+      <c r="I22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#41</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M22" t="s">
+        <v>249</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#F1</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#3F</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#11</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#13</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#E0</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#2B</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#E0</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#AC</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#69</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M25" t="s">
+        <v>249</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#F1</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#A4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#0F</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#E0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#0C</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#20</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#C0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#7C</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="M27" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#7C</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#1E</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#3C</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I28" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#10</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#F0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#3C</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#3E</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#3E</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#F0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#3E</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#3C</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#1E</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#E0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>147</v>
+      </c>
+      <c r="N30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#1E</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#3C</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E31" t="s">
+        <v>147</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#1E</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#E0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#1E</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#7C</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#3E</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#E0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#3E</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>#F8</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#C0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#08</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#08</v>
+      </c>
+      <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#80</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C33" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D33" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#3F</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G33" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H33" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K33" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L33" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#3F</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O33" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P33" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#1F</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#1F</v>
+      </c>
+      <c r="M4" t="s">
+        <v>101</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#C7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#80</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#C7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#80</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#7E</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#7E</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#FE</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#FE</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#FD</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#06</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#3D</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#03</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#FB</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#02</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#3B</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#F0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#FC</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#07</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#E8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#FC</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#F0</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#03</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#F0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>#07</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>#FF</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="7"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>#1F</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="1"/>
+        <v>#BF</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>#FC</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>#08</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="5"/>
+        <v>#FF</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="6"/>
+        <v>#FC</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>#1E</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>#FE</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="5"/>
+        <v>#8F</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>#1E</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>#04</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>251</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="4"/>
+        <v>#07</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="5"/>
+        <v>#8F</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>#3E</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>#80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" t="s">
+        <v>251</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="4"/>
+        <v>#0F</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="5"/>
+        <v>#8F</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>#82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>#FC</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="4"/>
+        <v>#3F</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="5"/>
+        <v>#07</v>
+      </c>
+      <c r="M23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>#88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>#D4</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>#07</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>#C8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="4"/>
+        <v>#35</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="5"/>
+        <v>#07</v>
+      </c>
+      <c r="M24" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>#96</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>#0F</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>#FF</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>#C0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="4"/>
+        <v>#25</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="5"/>
+        <v>#8F</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>#FF</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>#30</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>#3F</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>#07</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>#F0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="5"/>
+        <v>#3F</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>#FE</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>#04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>#3E</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>#03</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>#F8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="5"/>
+        <v>#3E</v>
+      </c>
+      <c r="M27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>#7F</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>#3C</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>#78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="5"/>
+        <v>#3C</v>
+      </c>
+      <c r="M28" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" t="s">
+        <v>103</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>#0F</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>#08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>#7C</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>#7C</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="5"/>
+        <v>#7C</v>
+      </c>
+      <c r="M29" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>#0F</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>#78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>#3C</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="5"/>
+        <v>#78</v>
+      </c>
+      <c r="M30" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>#07</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>#78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>#3C</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="5"/>
+        <v>#78</v>
+      </c>
+      <c r="M31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N31" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>#07</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>#7C</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>#3E</v>
+      </c>
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="5"/>
+        <v>#7C</v>
+      </c>
+      <c r="M32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>#07</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>#7F</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>#1F</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="5"/>
+        <v>#7F</v>
+      </c>
+      <c r="M33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="6"/>
+        <v>#03</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>#E0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/diseño sprites/diseno sprites.xlsx
+++ b/doc/diseño sprites/diseno sprites.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="zombi" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="jefecaballeroi" sheetId="13" r:id="rId13"/>
     <sheet name="jefezombid" sheetId="14" r:id="rId14"/>
     <sheet name="jefezombii" sheetId="15" r:id="rId15"/>
+    <sheet name="punto mira" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="303">
   <si>
     <t>00011111n</t>
   </si>
@@ -8951,7 +8952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="O17:P17"/>
     </sheetView>
   </sheetViews>
@@ -10823,7 +10824,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12682,6 +12683,949 @@
       <c r="P33" t="str">
         <f t="shared" si="7"/>
         <v>#E0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(A1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(B1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(E1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(F1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(I1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(J1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(M1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P1" t="str">
+        <f>CONCATENATE("#",BIN2HEX(REPLACE(N1,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C16" si="0">CONCATENATE("#",BIN2HEX(REPLACE(A2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D16" si="1">CONCATENATE("#",BIN2HEX(REPLACE(B2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G16" si="2">CONCATENATE("#",BIN2HEX(REPLACE(E2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H16" si="3">CONCATENATE("#",BIN2HEX(REPLACE(F2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K16" si="4">CONCATENATE("#",BIN2HEX(REPLACE(I2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L16" si="5">CONCATENATE("#",BIN2HEX(REPLACE(J2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O16" si="6">CONCATENATE("#",BIN2HEX(REPLACE(M2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P16" si="7">CONCATENATE("#",BIN2HEX(REPLACE(N2,1,1,""),2))</f>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>#80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>#02</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>#40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="4"/>
+        <v>#02</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="5"/>
+        <v>#40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>#02</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>#40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>#05</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>#A0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="4"/>
+        <v>#04</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="5"/>
+        <v>#20</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>#04</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>#20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>#0B</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>#D0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v>#30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="6"/>
+        <v>#03</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>#80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>#70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v>#12</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v>#48</v>
+      </c>
+      <c r="M7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="6"/>
+        <v>#05</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="7"/>
+        <v>#A0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>#0A</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>#50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>#05</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>#A0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>#0A</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>#50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>#05</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>#A0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v>#01</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v>#80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v>#3F</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="7"/>
+        <v>#FC</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>#80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>#0E</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>#70</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v>#12</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v>#48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>255</v>
+      </c>
+      <c r="N10" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v>#05</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="7"/>
+        <v>#A0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>#04</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>#20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>#0B</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>#D0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v>#0C</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v>#30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v>#03</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="7"/>
+        <v>#C0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>#02</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>#40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>#05</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>#A0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v>#04</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v>#20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>#01</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>#80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>#02</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>#40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v>#02</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v>#40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="6"/>
+        <v>#01</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="7"/>
+        <v>#80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>#00</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>#00</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>#00</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>#00</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="4"/>
+        <v>#00</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="5"/>
+        <v>#00</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="6"/>
+        <v>#00</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="7"/>
+        <v>#00</v>
       </c>
     </row>
   </sheetData>
